--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Cthrc1-Ror2.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="25">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -446,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,46 +534,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.6191033333333333</v>
+        <v>1.324075666666667</v>
       </c>
       <c r="H2">
-        <v>1.85731</v>
+        <v>3.972227</v>
       </c>
       <c r="I2">
-        <v>0.007929637811697733</v>
+        <v>0.01675578032580584</v>
       </c>
       <c r="J2">
-        <v>0.007962490129789305</v>
+        <v>0.01684165790066494</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.047572</v>
+        <v>0.1074926666666667</v>
       </c>
       <c r="N2">
-        <v>0.142716</v>
+        <v>0.322478</v>
       </c>
       <c r="O2">
-        <v>0.006780712238476237</v>
+        <v>0.01930181557781338</v>
       </c>
       <c r="P2">
-        <v>0.007303529947359069</v>
+        <v>0.01930181557781338</v>
       </c>
       <c r="Q2">
-        <v>0.02945198377333334</v>
+        <v>0.1423284242784444</v>
       </c>
       <c r="R2">
-        <v>0.26506785396</v>
+        <v>1.280955818506</v>
       </c>
       <c r="S2">
-        <v>5.376859215646274E-05</v>
+        <v>0.0003234169817110581</v>
       </c>
       <c r="T2">
-        <v>5.815428511846719E-05</v>
+        <v>0.0003250745748232583</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,16 +596,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.6191033333333333</v>
+        <v>1.324075666666667</v>
       </c>
       <c r="H3">
-        <v>1.85731</v>
+        <v>3.972227</v>
       </c>
       <c r="I3">
-        <v>0.007929637811697733</v>
+        <v>0.01675578032580584</v>
       </c>
       <c r="J3">
-        <v>0.007962490129789305</v>
+        <v>0.01684165790066494</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -614,33 +614,33 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>5.461551666666668</v>
+        <v>5.461551666666666</v>
       </c>
       <c r="N3">
         <v>16.384655</v>
       </c>
       <c r="O3">
-        <v>0.7784665397132128</v>
+        <v>0.9806981844221867</v>
       </c>
       <c r="P3">
-        <v>0.838489156574221</v>
+        <v>0.9806981844221866</v>
       </c>
       <c r="Q3">
-        <v>3.381264842005556</v>
+        <v>7.23150766407611</v>
       </c>
       <c r="R3">
-        <v>30.43138357805</v>
+        <v>65.083568976685</v>
       </c>
       <c r="S3">
-        <v>0.006172957708451387</v>
+        <v>0.01643236334409478</v>
       </c>
       <c r="T3">
-        <v>0.006676461633157594</v>
+        <v>0.01651658332584168</v>
       </c>
     </row>
     <row r="4" spans="1:20">
       <c r="A4" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B4" t="s">
         <v>23</v>
@@ -649,7 +649,7 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -658,46 +658,46 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.6191033333333333</v>
+        <v>76.48912033333333</v>
       </c>
       <c r="H4">
-        <v>1.85731</v>
+        <v>229.467361</v>
       </c>
       <c r="I4">
-        <v>0.007929637811697733</v>
+        <v>0.9679468703219594</v>
       </c>
       <c r="J4">
-        <v>0.007962490129789305</v>
+        <v>0.9729078406975189</v>
       </c>
       <c r="K4">
         <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.5066585</v>
+        <v>0.1074926666666667</v>
       </c>
       <c r="N4">
-        <v>3.013317</v>
+        <v>0.322478</v>
       </c>
       <c r="O4">
-        <v>0.2147527480483109</v>
+        <v>0.01930181557781338</v>
       </c>
       <c r="P4">
-        <v>0.15420731347842</v>
+        <v>0.01930181557781338</v>
       </c>
       <c r="Q4">
-        <v>0.932777299545</v>
+        <v>8.222019515617555</v>
       </c>
       <c r="R4">
-        <v>5.59666379727</v>
+        <v>73.99817564055799</v>
       </c>
       <c r="S4">
-        <v>0.001702911511089883</v>
+        <v>0.01868313198007611</v>
       </c>
       <c r="T4">
-        <v>0.001227874211513244</v>
+        <v>0.01877888771535215</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,7 +711,7 @@
         <v>24</v>
       </c>
       <c r="D5" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -726,45 +726,45 @@
         <v>229.467361</v>
       </c>
       <c r="I5">
-        <v>0.9796927073757713</v>
+        <v>0.9679468703219594</v>
       </c>
       <c r="J5">
-        <v>0.9837515530909214</v>
+        <v>0.9729078406975189</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.047572</v>
+        <v>5.461551666666666</v>
       </c>
       <c r="N5">
-        <v>0.142716</v>
+        <v>16.384655</v>
       </c>
       <c r="O5">
-        <v>0.006780712238476237</v>
+        <v>0.9806981844221867</v>
       </c>
       <c r="P5">
-        <v>0.007303529947359069</v>
+        <v>0.9806981844221866</v>
       </c>
       <c r="Q5">
-        <v>3.638740432497333</v>
+        <v>417.7492826383838</v>
       </c>
       <c r="R5">
-        <v>32.748663892476</v>
+        <v>3759.743543745454</v>
       </c>
       <c r="S5">
-        <v>0.006643014330848811</v>
+        <v>0.9492637383418834</v>
       </c>
       <c r="T5">
-        <v>0.00718485892876054</v>
+        <v>0.9541289529821667</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
         <v>23</v>
@@ -773,60 +773,60 @@
         <v>24</v>
       </c>
       <c r="D6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>76.48912033333333</v>
+        <v>1.2088275</v>
       </c>
       <c r="H6">
-        <v>229.467361</v>
+        <v>2.417655</v>
       </c>
       <c r="I6">
-        <v>0.9796927073757713</v>
+        <v>0.0152973493522347</v>
       </c>
       <c r="J6">
-        <v>0.9837515530909214</v>
+        <v>0.01025050140181618</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>5.461551666666668</v>
+        <v>0.1074926666666667</v>
       </c>
       <c r="N6">
-        <v>16.384655</v>
+        <v>0.322478</v>
       </c>
       <c r="O6">
-        <v>0.7784665397132128</v>
+        <v>0.01930181557781338</v>
       </c>
       <c r="P6">
-        <v>0.838489156574221</v>
+        <v>0.01930181557781338</v>
       </c>
       <c r="Q6">
-        <v>417.749282638384</v>
+        <v>0.129940091515</v>
       </c>
       <c r="R6">
-        <v>3759.743543745456</v>
+        <v>0.7796405490899999</v>
       </c>
       <c r="S6">
-        <v>0.7626579918930858</v>
+        <v>0.0002952666160262172</v>
       </c>
       <c r="T6">
-        <v>0.8248650100297866</v>
+        <v>0.0001978532876379735</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
         <v>23</v>
@@ -835,241 +835,55 @@
         <v>24</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E7">
+        <v>2</v>
+      </c>
+      <c r="F7">
+        <v>1</v>
+      </c>
+      <c r="G7">
+        <v>1.2088275</v>
+      </c>
+      <c r="H7">
+        <v>2.417655</v>
+      </c>
+      <c r="I7">
+        <v>0.0152973493522347</v>
+      </c>
+      <c r="J7">
+        <v>0.01025050140181618</v>
+      </c>
+      <c r="K7">
         <v>3</v>
       </c>
-      <c r="F7">
-        <v>1</v>
-      </c>
-      <c r="G7">
-        <v>76.48912033333333</v>
-      </c>
-      <c r="H7">
-        <v>229.467361</v>
-      </c>
-      <c r="I7">
-        <v>0.9796927073757713</v>
-      </c>
-      <c r="J7">
-        <v>0.9837515530909214</v>
-      </c>
-      <c r="K7">
-        <v>2</v>
-      </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.5066585</v>
+        <v>5.461551666666666</v>
       </c>
       <c r="N7">
-        <v>3.013317</v>
+        <v>16.384655</v>
       </c>
       <c r="O7">
-        <v>0.2147527480483109</v>
+        <v>0.9806981844221867</v>
       </c>
       <c r="P7">
-        <v>0.15420731347842</v>
+        <v>0.9806981844221866</v>
       </c>
       <c r="Q7">
-        <v>115.2429833077395</v>
+        <v>6.602073847337499</v>
       </c>
       <c r="R7">
-        <v>691.457899846437</v>
+        <v>39.612443084025</v>
       </c>
       <c r="S7">
-        <v>0.2103917011518366</v>
+        <v>0.01500208273620848</v>
       </c>
       <c r="T7">
-        <v>0.1517016841323743</v>
-      </c>
-    </row>
-    <row r="8" spans="1:20">
-      <c r="A8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
-      <c r="E8">
-        <v>2</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>0.9663804999999999</v>
-      </c>
-      <c r="H8">
-        <v>1.932761</v>
-      </c>
-      <c r="I8">
-        <v>0.01237765481253107</v>
-      </c>
-      <c r="J8">
-        <v>0.008285956779289243</v>
-      </c>
-      <c r="K8">
-        <v>1</v>
-      </c>
-      <c r="L8">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M8">
-        <v>0.047572</v>
-      </c>
-      <c r="N8">
-        <v>0.142716</v>
-      </c>
-      <c r="O8">
-        <v>0.006780712238476237</v>
-      </c>
-      <c r="P8">
-        <v>0.007303529947359069</v>
-      </c>
-      <c r="Q8">
-        <v>0.045972653146</v>
-      </c>
-      <c r="R8">
-        <v>0.275835918876</v>
-      </c>
-      <c r="S8">
-        <v>8.39293154709637E-05</v>
-      </c>
-      <c r="T8">
-        <v>6.051673348006189E-05</v>
-      </c>
-    </row>
-    <row r="9" spans="1:20">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>1</v>
-      </c>
-      <c r="G9">
-        <v>0.9663804999999999</v>
-      </c>
-      <c r="H9">
-        <v>1.932761</v>
-      </c>
-      <c r="I9">
-        <v>0.01237765481253107</v>
-      </c>
-      <c r="J9">
-        <v>0.008285956779289243</v>
-      </c>
-      <c r="K9">
-        <v>3</v>
-      </c>
-      <c r="L9">
-        <v>1</v>
-      </c>
-      <c r="M9">
-        <v>5.461551666666668</v>
-      </c>
-      <c r="N9">
-        <v>16.384655</v>
-      </c>
-      <c r="O9">
-        <v>0.7784665397132128</v>
-      </c>
-      <c r="P9">
-        <v>0.838489156574221</v>
-      </c>
-      <c r="Q9">
-        <v>5.277937030409167</v>
-      </c>
-      <c r="R9">
-        <v>31.667622182455</v>
-      </c>
-      <c r="S9">
-        <v>0.009635590111675656</v>
-      </c>
-      <c r="T9">
-        <v>0.006947684911276686</v>
-      </c>
-    </row>
-    <row r="10" spans="1:20">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10">
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.9663804999999999</v>
-      </c>
-      <c r="H10">
-        <v>1.932761</v>
-      </c>
-      <c r="I10">
-        <v>0.01237765481253107</v>
-      </c>
-      <c r="J10">
-        <v>0.008285956779289243</v>
-      </c>
-      <c r="K10">
-        <v>2</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1.5066585</v>
-      </c>
-      <c r="N10">
-        <v>3.013317</v>
-      </c>
-      <c r="O10">
-        <v>0.2147527480483109</v>
-      </c>
-      <c r="P10">
-        <v>0.15420731347842</v>
-      </c>
-      <c r="Q10">
-        <v>1.45600539455925</v>
-      </c>
-      <c r="R10">
-        <v>5.824021578236999</v>
-      </c>
-      <c r="S10">
-        <v>0.002658135385384448</v>
-      </c>
-      <c r="T10">
-        <v>0.001277755134532496</v>
+        <v>0.01005264811417821</v>
       </c>
     </row>
   </sheetData>
